--- a/dashboard_loader/education_ecenqs_uploader/education_ecenqs.xlsx
+++ b/dashboard_loader/education_ecenqs_uploader/education_ecenqs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -320,10 +320,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -333,7 +333,7 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -350,7 +350,6 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
@@ -367,51 +366,49 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -419,123 +416,119 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="n">
+        <v>3323</v>
+      </c>
       <c r="F5" s="10" t="n">
-        <v>3323</v>
+        <v>3170</v>
       </c>
       <c r="G5" s="10" t="n">
-        <v>3170</v>
+        <v>2209</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>2209</v>
+        <v>928</v>
       </c>
       <c r="I5" s="10" t="n">
-        <v>928</v>
+        <v>1030</v>
       </c>
       <c r="J5" s="10" t="n">
-        <v>1030</v>
+        <v>197</v>
       </c>
       <c r="K5" s="10" t="n">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="L5" s="10" t="n">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c r="M5" s="10" t="n">
-        <v>149</v>
-      </c>
-      <c r="N5" s="10" t="n">
         <v>11266</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6"/>
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="n">
+        <v>282</v>
+      </c>
       <c r="F6" s="10" t="n">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="G6" s="10" t="n">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="10" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K6" s="10" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L6" s="10" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M6" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="N6" s="10" t="n">
         <v>710</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="n">
+        <v>204</v>
+      </c>
       <c r="F7" s="10" t="n">
-        <v>204</v>
+        <v>392</v>
       </c>
       <c r="G7" s="10" t="n">
-        <v>392</v>
+        <v>206</v>
       </c>
       <c r="H7" s="10" t="n">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="I7" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="J7" s="10" t="n">
-        <v>60</v>
-      </c>
       <c r="K7" s="10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L7" s="10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M7" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="N7" s="10" t="n">
         <v>902</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -543,17 +536,16 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -561,121 +553,117 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="n">
+        <v>1576</v>
+      </c>
       <c r="F10" s="10" t="n">
-        <v>1576</v>
+        <v>808</v>
       </c>
       <c r="G10" s="10" t="n">
-        <v>808</v>
+        <v>685</v>
       </c>
       <c r="H10" s="10" t="n">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="I10" s="10" t="n">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="J10" s="10" t="n">
-        <v>698</v>
+        <v>27</v>
       </c>
       <c r="K10" s="10" t="n">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L10" s="10" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="M10" s="10" t="n">
-        <v>58</v>
-      </c>
-      <c r="N10" s="10" t="n">
         <v>4606</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6"/>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="n">
+        <v>1483</v>
+      </c>
       <c r="F11" s="10" t="n">
-        <v>1483</v>
+        <v>657</v>
       </c>
       <c r="G11" s="10" t="n">
-        <v>657</v>
+        <v>582</v>
       </c>
       <c r="H11" s="10" t="n">
-        <v>582</v>
+        <v>183</v>
       </c>
       <c r="I11" s="10" t="n">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="J11" s="10" t="n">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="L11" s="10" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M11" s="10" t="n">
-        <v>132</v>
-      </c>
-      <c r="N11" s="10" t="n">
         <v>3385</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="n">
+        <v>2096</v>
+      </c>
       <c r="F12" s="10" t="n">
-        <v>2096</v>
+        <v>2533</v>
       </c>
       <c r="G12" s="10" t="n">
-        <v>2533</v>
+        <v>1535</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>1535</v>
+        <v>265</v>
       </c>
       <c r="I12" s="10" t="n">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="J12" s="10" t="n">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L12" s="10" t="n">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10" t="n">
-        <v>34</v>
-      </c>
-      <c r="N12" s="10" t="n">
         <v>7022</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -694,7 +682,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/dashboard_loader/education_ecenqs_uploader/education_ecenqs.xlsx
+++ b/dashboard_loader/education_ecenqs_uploader/education_ecenqs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t xml:space="preserve">The proportion of early childhood education and care services in Australia with a quality rating, by quality rating level and jurisdiction, March 2013 and September 2015</t>
   </si>
@@ -62,6 +62,18 @@
     <t xml:space="preserve">Meeting NQS</t>
   </si>
   <si>
+    <t xml:space="preserve">Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 per cent of the early childhood education and care services in each jurisdiction assessed and rated during the calendar year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early childhood services meeting the National Quality Standard </t>
+  </si>
+  <si>
     <t xml:space="preserve">Status</t>
   </si>
   <si>
@@ -74,25 +86,28 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">As at 30 September 2015, 69.3 per cent of all early childhood education and care services had received a quality rating against the NQS. This has increased from 12.6 per cent in 2013.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of the early childhood education and care services with a quality rating, 67 per cent are meeting or exceeding the NQS compared to 55.6 per cent in 2013.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All jurisdictions are focused on increasing efficiency while maintaining the quality of the assessments and ratings.</t>
+    <t xml:space="preserve">All the states and territories have assessed and rated 15 per cent or more of early childhood education and care services in their jurisdiction in the 2016 calendar year, with this performance indicator expressed as a percentage of the number of services in each jurisdiction as at 30 June 2015. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As at 31 December 2016, 86.3 per cent of all early childhood education and care services regulated under the NQF had received a quality rating against the NQS. This has increased from 12.6 per cent in March 2013. Of the early childhood education and care services with a quality rating, 72.4 per cent are meeting or exceeding the NQS compared to 55.6 per cent in 2013. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All jurisdictions are focused on increasing efficiency while maintaining the quality of the assessments and ratings process.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">The services that were selected to be quality rated were not selected at random nor are they a representative cross-section of all services. Therefore when reviewing the quality rating information, caution should be taken when making predictions about services yet to be rated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This figure does not include services that received a rating of "significant improvement required". In both 2013 and 2015 there were nine services that received the rating "significant improvement required".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Australia commenced implementing the NQS seven months after other jurisdictions, which provides some explanation for the fewer services assessed compared to other jurisdictions. Western Australia has, in the past 12-18 months, initiated a range of reforms aimed at increasing productivity, including setting performance benchmarks, streamlining training and restructuring the team to maximise staff allocated to assessment roles. Western Australia’s efficiency reviews have resulted in a lift of quarterly output from 55 assessed services in Q3 2014 to 78 in Q4 2015, a 41% increase in output.</t>
+    <t xml:space="preserve">The services that were selected to be quality rated were not selected at random nor are they a representative cross-section of all services. Therefore when reviewing the quality rating information, caution should be taken when making predictions about services yet to be rated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This figure does not include services that received a rating of ‘significant improvement required’. At the end of September 2013 there were nine services that received the rating ‘significant improvement required’ and at the end of September 2016 there were 21 services that had this rating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Children’s Education and Care Quality Authority NQF Snapshot Q1-2013 and Q3-2016</t>
   </si>
 </sst>
 </file>
@@ -104,11 +119,12 @@
     <numFmt numFmtId="165" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="12">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="23">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -126,13 +142,82 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -179,16 +264,72 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF00000A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -196,8 +337,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,33 +377,65 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -255,63 +443,147 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Microsoft Excel found an error in the formula you entered. Do you want to accept the correction proposed below?&#10;&#10;|&#10;&#10;• To accept the correction, click Yes.&#10;• To close this message and correct the formula yourself, click No. 16 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_AIHW RoGS indicator concordance_NHA PI 13 4 yo health check" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 152" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_2009 Attachment 7A.4_Tobacco" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF00000A"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -322,15 +594,15 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -680,80 +952,97 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="107.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="16" t="n">
         <v>2015</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+    <row r="5" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+    <row r="6" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/dashboard_loader/education_ecenqs_uploader/education_ecenqs.xlsx
+++ b/dashboard_loader/education_ecenqs_uploader/education_ecenqs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
-    <t xml:space="preserve">The proportion of early childhood education and care services in Australia with a quality rating, by quality rating level and jurisdiction, March 2013 and September 2015</t>
+    <t xml:space="preserve">The proportion of early childhood education and care services in Australia with a quality rating, by quality rating level and jurisdiction, March 2013 and September 2016</t>
   </si>
   <si>
     <t xml:space="preserve">NSW</t>
@@ -119,7 +119,7 @@
     <numFmt numFmtId="165" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -269,13 +269,6 @@
       <color rgb="FF00000A"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00000A"/>
-      <name val=""/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -426,7 +419,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,10 +477,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,14 +583,14 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -811,9 +800,9 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B9" s="11"/>
       <c r="D9" s="12"/>
@@ -954,7 +943,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -977,7 +966,7 @@
       <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -985,7 +974,7 @@
       <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -993,7 +982,7 @@
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="15" t="n">
         <v>2015</v>
       </c>
     </row>
@@ -1001,18 +990,18 @@
       <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1020,13 +1009,13 @@
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1034,7 +1023,7 @@
       <c r="A10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>28</v>
       </c>
     </row>
